--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20</t>
+    <t>2023-05-25</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,7 +271,7 @@
     <t>内視鏡を使用したDICOM画像検査に関する情報。</t>
   </si>
   <si>
-    <t>Representation of the content produced in a DICOM imaging study. A study comprises a set of series, each of which includes a set of Service-Object Pair Instances (SOP Instances - images or other data) acquired or produced in a common context.  A series is of only one modality (e.g. X-ray, CT, MR, ultrasound), but a study may have multiple series of different modalities.</t>
+    <t>DICOM画像研究で生成されたコンテンツの表現。 研究には、共通の文脈で収集または生成されたサービスオブジェクトペアインスタンス（SOPインスタンス - 画像またはその他のデータ）のセットで構成される一連のシリーズが含まれます。 シリーズは1つのモダリティのみ（X線、CT、MR、超音波など）、研究には複数の異なるモダリティのシリーズが含まれる場合があります。</t>
   </si>
   <si>
     <t>Event</t>
@@ -296,13 +296,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID</t>
+  </si>
+  <si>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -315,16 +315,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>「リソースに関するメタデータ」</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -335,13 +335,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールセット</t>
+  </si>
+  <si>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -354,19 +354,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
+  </si>
+  <si>
+    <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -386,13 +386,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+  </si>
+  <si>
+    <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -412,13 +412,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -438,30 +438,29 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>ImagingStudy.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -508,13 +507,13 @@
     <t>DICOM画像検査のステータス。</t>
   </si>
   <si>
-    <t>Unknown does not represent "other" - one of the defined statuses must apply.  Unknown is used when the authoring system is not sure what the current status is.</t>
+    <t>「不明」は「その他」を表すものではありません-定義された状態の1つが適用される必要があります。「不明」は、制作システムが現在の状態を確信できない場合に使用されます。」</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The status of the ImagingStudy.</t>
+    <t>「ImagingStudyの状態。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/imagingstudy-status|4.0.1</t>
@@ -552,7 +551,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Type of acquired data in the instance.</t>
+    <t>「インスタンスにおける取得データの種類。」</t>
   </si>
   <si>
     <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
@@ -810,10 +809,7 @@
     <t>内視鏡では省略してよい。</t>
   </si>
   <si>
-    <t>The performed procedure type.</t>
-  </si>
-  <si>
-    <t>http://www.rsna.org/RadLex_Playbook.aspx</t>
+    <t>http://playbook.radlex.org/playbook/SearchRadlexAction</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -862,7 +858,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ReasonCodeJed_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ReasonCodesJed_VS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -954,10 +950,10 @@
     <t>ImagingStudy.series.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -969,7 +965,7 @@
     <t>ImagingStudy.series.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -982,11 +978,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1087,7 +1083,7 @@
     <t>このシリーズのリソースが存在する位置。</t>
   </si>
   <si>
-    <t>Typical endpoint types include DICOM WADO-RS, which is used to retrieve DICOM instances in native or rendered (e.g., JPG, PNG) formats using a RESTful API; DICOM WADO-URI, which can similarly retrieve native or rendered instances, except using an HTTP query-based approach; and DICOM QIDO-RS, which allows RESTful query for DICOM information without retrieving the actual instances.</t>
+    <t>典型的なエンドポイントタイプには、レストフルAPIを使用してネイティブまたはレンダリング（例：JPG、PNG）形式のDICOMインスタンスを取得するために使用されるDICOM WADO-RSが含まれ、HTTPクエリベースのアプローチを使用して同様のネイティブまたはレンダリングインスタンスを取得することができるDICOM WADO-URIが含まれ、DICOM情報のRESTfulクエリを可能にするDICOM QIDO-RSが含まれます。</t>
   </si>
   <si>
     <t>Access methods for retrieving (e.g., DICOM’s WADO-URI and WADO-RS) the series or the series’ instances. A baseLocation specified at the series level has precedence over a baseLocation of the same type specified at the study level.</t>
@@ -1103,7 +1099,7 @@
     <t>このシリーズの対象となる解剖学的部位。</t>
   </si>
   <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
+    <t>解剖学的位置を記述するコード。左右対称性を含む場合があります。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -1121,7 +1117,7 @@
     <t>解剖学的部位の左右。</t>
   </si>
   <si>
-    <t>Codes describing body site laterality (left, right, etc.).</t>
+    <t>「適用される部位の側性を示すコード（左側、右側など）」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/bodysite-laterality</t>
@@ -1195,7 +1191,7 @@
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>The type of involvement of the performer.</t>
+    <t>「パフォーマーの関与のタイプ」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/series-performer-function</t>
@@ -1275,7 +1271,7 @@
  Secondary Capture Image Storage:1.2.840.10008.5.1.4.1.1.7</t>
   </si>
   <si>
-    <t>The sopClass for the instance.</t>
+    <t>インスタンスのSOPクラス。</t>
   </si>
   <si>
     <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part04/sect_B.5.html#table_B.5-1</t>
@@ -1673,7 +1669,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.8984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="87.2265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -4453,11 +4449,9 @@
       <c r="X24" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Y24" s="2"/>
+      <c r="Z24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4490,7 +4484,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>246</v>
@@ -4507,10 +4501,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4533,19 +4527,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4594,7 +4588,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4609,27 +4603,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4655,13 +4649,13 @@
         <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4687,11 +4681,11 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4709,7 +4703,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4724,16 +4718,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4741,10 +4735,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4767,16 +4761,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4826,7 +4820,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4841,27 +4835,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4884,13 +4878,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4941,7 +4935,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4956,10 +4950,10 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4973,14 +4967,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4999,16 +4993,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5058,7 +5052,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5076,10 +5070,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5090,10 +5084,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5116,13 +5110,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5173,7 +5167,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5191,7 +5185,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5205,10 +5199,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5231,13 +5225,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5288,7 +5282,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5306,7 +5300,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5320,10 +5314,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5352,7 +5346,7 @@
         <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>138</v>
@@ -5405,7 +5399,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5423,7 +5417,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5437,14 +5431,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5466,10 +5460,10 @@
         <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>138</v>
@@ -5524,7 +5518,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5556,14 +5550,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5585,16 +5579,16 @@
         <v>91</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5607,7 +5601,7 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>79</v>
@@ -5643,7 +5637,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>89</v>
@@ -5661,10 +5655,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5675,14 +5669,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5704,10 +5698,10 @@
         <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5722,7 +5716,7 @@
         <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>79</v>
@@ -5758,7 +5752,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5776,10 +5770,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5790,14 +5784,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5819,13 +5813,13 @@
         <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5875,7 +5869,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>89</v>
@@ -5896,7 +5890,7 @@
         <v>174</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5907,14 +5901,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5933,13 +5927,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5954,7 +5948,7 @@
         <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>79</v>
@@ -5990,7 +5984,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6008,10 +6002,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6022,14 +6016,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6051,10 +6045,10 @@
         <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6105,7 +6099,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6126,7 +6120,7 @@
         <v>239</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6137,10 +6131,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6166,16 +6160,16 @@
         <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6224,7 +6218,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6256,14 +6250,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6285,10 +6279,10 @@
         <v>168</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>252</v>
@@ -6317,14 +6311,14 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6341,7 +6335,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6359,10 +6353,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6373,10 +6367,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6402,10 +6396,10 @@
         <v>168</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>252</v>
@@ -6434,14 +6428,14 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6458,7 +6452,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6476,10 +6470,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6490,10 +6484,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6516,13 +6510,13 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>252</v>
@@ -6575,7 +6569,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6593,10 +6587,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6607,10 +6601,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6636,13 +6630,13 @@
         <v>194</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6692,7 +6686,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6713,7 +6707,7 @@
         <v>198</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6724,14 +6718,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6750,19 +6744,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>252</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6811,7 +6805,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6826,13 +6820,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6843,10 +6837,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6869,13 +6863,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6926,7 +6920,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6944,7 +6938,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -6958,10 +6952,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6990,7 +6984,7 @@
         <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>138</v>
@@ -7043,7 +7037,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7061,7 +7055,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7075,14 +7069,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7104,10 +7098,10 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>138</v>
@@ -7162,7 +7156,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7194,10 +7188,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7223,16 +7217,16 @@
         <v>250</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>252</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7260,11 +7254,11 @@
         <v>171</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7281,7 +7275,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7313,10 +7307,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7339,13 +7333,13 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>252</v>
@@ -7398,7 +7392,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>89</v>
@@ -7416,24 +7410,24 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7456,13 +7450,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7513,7 +7507,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7531,7 +7525,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7545,10 +7539,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7571,13 +7565,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7628,7 +7622,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7646,7 +7640,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7660,10 +7654,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7692,7 +7686,7 @@
         <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>138</v>
@@ -7745,7 +7739,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7763,7 +7757,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7777,14 +7771,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7806,10 +7800,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -7864,7 +7858,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7896,14 +7890,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7925,16 +7919,16 @@
         <v>91</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -7947,7 +7941,7 @@
         <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -7983,7 +7977,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>89</v>
@@ -8001,10 +7995,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8015,14 +8009,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8044,13 +8038,13 @@
         <v>168</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8079,11 +8073,11 @@
         <v>171</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8100,7 +8094,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8118,10 +8112,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8132,14 +8126,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8161,13 +8155,13 @@
         <v>232</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8217,7 +8211,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8235,10 +8229,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8249,10 +8243,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8275,16 +8269,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8334,7 +8328,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8352,10 +8346,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -480,6 +480,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査全体を一意に識別するためのID。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査全体を一意に識別するためのID。</t>
   </si>
   <si>
@@ -542,6 +545,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査で使用された撮影装置（モダリティ）。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査で使用された撮影装置（モダリティ）。</t>
   </si>
   <si>
@@ -573,6 +579,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査の対象患者に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査の対象患者に関する情報。</t>
   </si>
   <si>
@@ -598,6 +607,9 @@
 </t>
   </si>
   <si>
+    <t>このDICOM画像検査を実施するきっかけとなった情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>このDICOM画像検査を実施するきっかけとなった情報。</t>
   </si>
   <si>
@@ -649,6 +661,9 @@
 </t>
   </si>
   <si>
+    <t>他のシステムから依頼されたオーダ情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>他のシステムから依頼されたオーダ情報。</t>
   </si>
   <si>
@@ -681,6 +696,9 @@
 </t>
   </si>
   <si>
+    <t>依頼医師。【詳細参照】</t>
+  </si>
+  <si>
     <t>依頼医師。</t>
   </si>
   <si>
@@ -700,6 +718,9 @@
 </t>
   </si>
   <si>
+    <t>画像を診断した医師。【詳細参照】</t>
+  </si>
+  <si>
     <t>画像を診断した医師。</t>
   </si>
   <si>
@@ -722,6 +743,9 @@
 </t>
   </si>
   <si>
+    <t>このDICOM画像検査リソースが存在する位置。【詳細参照】</t>
+  </si>
+  <si>
     <t>このDICOM画像検査リソースが存在する位置。</t>
   </si>
   <si>
@@ -777,6 +801,9 @@
 </t>
   </si>
   <si>
+    <t>実施された処置に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>実施された処置に関する情報。</t>
   </si>
   <si>
@@ -803,6 +830,9 @@
 </t>
   </si>
   <si>
+    <t>実施された処置を表すコード。【詳細参照】</t>
+  </si>
+  <si>
     <t>実施された処置を表すコード。</t>
   </si>
   <si>
@@ -822,6 +852,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査が実施された場所。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査が実施された場所。</t>
   </si>
   <si>
@@ -847,6 +880,9 @@
   </si>
   <si>
     <t>ImagingStudy.reasonCode</t>
+  </si>
+  <si>
+    <t>DICOM画像検査が依頼された理由を表す1つ以上のコード。【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査が依頼された理由を表す1つ以上のコード。</t>
@@ -880,6 +916,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査の実施理由に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査の実施理由に関する情報。</t>
   </si>
   <si>
@@ -922,6 +961,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査に関する記述。【詳細参照】</t>
+  </si>
+  <si>
     <t>DICOM画像検査に関する記述。</t>
   </si>
   <si>
@@ -995,6 +1037,9 @@
 </t>
   </si>
   <si>
+    <t>シリーズを一意に識別するためのUID。【詳細参照】</t>
+  </si>
+  <si>
     <t>シリーズを一意に識別するためのUID。</t>
   </si>
   <si>
@@ -1039,6 +1084,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズが取得された撮影装置（モダリティ）。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズが取得された撮影装置（モダリティ）。</t>
   </si>
   <si>
@@ -1096,6 +1144,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズの対象となる解剖学的部位。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズの対象となる解剖学的部位。</t>
   </si>
   <si>
@@ -1112,6 +1163,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.laterality</t>
+  </si>
+  <si>
+    <t>解剖学的部位の左右。【詳細参照】</t>
   </si>
   <si>
     <t>解剖学的部位の左右。</t>
@@ -1133,6 +1187,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズの検体に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズの検体に関する情報。</t>
   </si>
   <si>
@@ -1143,6 +1200,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.started</t>
+  </si>
+  <si>
+    <t>このシリーズの開始日時。【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの開始日時。</t>
@@ -1161,6 +1221,9 @@
 OperatorName</t>
   </si>
   <si>
+    <t>このシリーズの実施医。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズの実施医。</t>
   </si>
   <si>
@@ -1183,6 +1246,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.performer.function</t>
+  </si>
+  <si>
+    <t>このシリーズの実施医の役割。【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの実施医の役割。</t>
@@ -1204,6 +1270,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズの撮影者、もしくは組織。【詳細参照】</t>
+  </si>
+  <si>
     <t>このシリーズの撮影者、もしくは組織。</t>
   </si>
   <si>
@@ -1241,6 +1310,9 @@
 </t>
   </si>
   <si>
+    <t>インスタンス（画像）のユニークID。【詳細参照】</t>
+  </si>
+  <si>
     <t>インスタンス（画像）のユニークID。</t>
   </si>
   <si>
@@ -1261,6 +1333,9 @@
   <si>
     <t xml:space="preserve">SOPClassUID
 </t>
+  </si>
+  <si>
+    <t>SOPクラスUID。【詳細参照】</t>
   </si>
   <si>
     <t>SOPクラスUID。</t>
@@ -1290,6 +1365,9 @@
 </t>
   </si>
   <si>
+    <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号。【詳細参照】</t>
+  </si>
+  <si>
     <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号。</t>
   </si>
   <si>
@@ -1303,6 +1381,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.instance.title</t>
+  </si>
+  <si>
+    <t>画像に関する説明。【詳細参照】</t>
   </si>
   <si>
     <t>画像に関する説明。</t>
@@ -2897,13 +2978,13 @@
         <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -2967,16 +3048,16 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>79</v>
@@ -2984,10 +3065,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3013,13 +3094,13 @@
         <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3045,13 +3126,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3069,7 +3150,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>89</v>
@@ -3084,31 +3165,31 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3127,16 +3208,16 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3162,13 +3243,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3186,7 +3267,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3204,13 +3285,13 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3218,10 +3299,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3244,16 +3325,16 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3303,7 +3384,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>89</v>
@@ -3318,16 +3399,16 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3335,10 +3416,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3361,16 +3442,16 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3420,7 +3501,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3435,16 +3516,16 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3452,14 +3533,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3478,13 +3559,13 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3499,43 +3580,43 @@
         <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3550,16 +3631,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3567,10 +3648,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3593,19 +3674,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3654,7 +3735,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3669,16 +3750,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3686,14 +3767,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3712,16 +3793,16 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3771,7 +3852,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3789,13 +3870,13 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -3803,14 +3884,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3829,16 +3910,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3888,7 +3969,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3906,13 +3987,13 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -3920,10 +4001,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3946,19 +4027,19 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4007,7 +4088,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4025,7 +4106,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4039,14 +4120,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4065,13 +4146,13 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4122,7 +4203,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4140,10 +4221,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4154,14 +4235,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4180,13 +4261,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4237,7 +4318,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4255,10 +4336,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4269,10 +4350,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4295,16 +4376,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4354,7 +4435,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4369,13 +4450,13 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4386,14 +4467,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4412,16 +4493,16 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4447,11 +4528,11 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4469,7 +4550,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4484,13 +4565,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4501,10 +4582,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4527,19 +4608,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4588,7 +4669,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4603,27 +4684,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4646,16 +4727,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4681,11 +4762,11 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4703,7 +4784,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4718,16 +4799,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4735,10 +4816,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4761,16 +4842,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4820,7 +4901,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4835,27 +4916,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4878,13 +4959,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4935,7 +5016,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4950,10 +5031,10 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4967,14 +5048,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4993,16 +5074,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5052,7 +5133,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5070,10 +5151,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5084,10 +5165,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5110,13 +5191,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5167,7 +5248,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5185,7 +5266,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5199,10 +5280,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5225,13 +5306,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5282,7 +5363,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5300,7 +5381,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5314,10 +5395,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5346,7 +5427,7 @@
         <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>138</v>
@@ -5399,7 +5480,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5417,7 +5498,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5431,14 +5512,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5460,10 +5541,10 @@
         <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>138</v>
@@ -5518,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5550,14 +5631,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5579,16 +5660,16 @@
         <v>91</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5601,7 +5682,7 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>79</v>
@@ -5637,7 +5718,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>89</v>
@@ -5655,10 +5736,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5669,14 +5750,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5695,13 +5776,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5716,7 +5797,7 @@
         <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>79</v>
@@ -5752,7 +5833,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5770,10 +5851,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5784,14 +5865,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5810,16 +5891,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5845,13 +5926,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -5869,7 +5950,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>89</v>
@@ -5887,10 +5968,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5901,14 +5982,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5927,13 +6008,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5948,7 +6029,7 @@
         <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>79</v>
@@ -5984,7 +6065,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6002,10 +6083,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6016,14 +6097,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6042,13 +6123,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6099,7 +6180,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6117,10 +6198,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6131,10 +6212,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6157,19 +6238,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6218,7 +6299,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6236,7 +6317,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6250,14 +6331,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6276,16 +6357,16 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6311,13 +6392,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6335,7 +6416,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6353,10 +6434,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6367,10 +6448,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6393,16 +6474,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6428,13 +6509,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6452,7 +6533,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6470,10 +6551,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6484,10 +6565,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6510,16 +6591,16 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6569,7 +6650,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6587,10 +6668,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6601,10 +6682,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6627,16 +6708,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6686,7 +6767,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6704,10 +6785,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6718,14 +6799,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6744,19 +6825,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6805,7 +6886,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6820,13 +6901,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6837,10 +6918,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6863,13 +6944,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6920,7 +7001,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6938,7 +7019,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -6952,10 +7033,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6984,7 +7065,7 @@
         <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>138</v>
@@ -7037,7 +7118,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7055,7 +7136,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7069,14 +7150,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7098,10 +7179,10 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>138</v>
@@ -7156,7 +7237,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7188,10 +7269,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7214,19 +7295,19 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7251,13 +7332,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7356,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7293,7 +7374,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7307,10 +7388,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7333,16 +7414,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7392,7 +7473,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>89</v>
@@ -7410,24 +7491,24 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7450,13 +7531,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7507,7 +7588,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7525,7 +7606,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7539,10 +7620,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7565,13 +7646,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7622,7 +7703,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7640,7 +7721,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7654,10 +7735,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7686,7 +7767,7 @@
         <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>138</v>
@@ -7739,7 +7820,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7757,7 +7838,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7771,14 +7852,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7800,10 +7881,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -7858,7 +7939,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7890,14 +7971,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7919,16 +8000,16 @@
         <v>91</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -7941,7 +8022,7 @@
         <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -7977,7 +8058,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>89</v>
@@ -7995,10 +8076,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8009,14 +8090,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8035,16 +8116,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8070,13 +8151,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8094,7 +8175,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8112,10 +8193,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8126,14 +8207,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8152,16 +8233,16 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8211,7 +8292,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8229,10 +8310,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8243,10 +8324,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8269,16 +8350,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8328,7 +8409,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8346,10 +8427,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -268,7 +268,7 @@
 </t>
   </si>
   <si>
-    <t>内視鏡を使用したDICOM画像検査に関する情報。</t>
+    <t>内視鏡を使用したDICOM画像検査に関する情報</t>
   </si>
   <si>
     <t>DICOM画像研究で生成されたコンテンツの表現。 研究には、共通の文脈で収集または生成されたサービスオブジェクトペアインスタンス（SOPインスタンス - 画像またはその他のデータ）のセットで構成される一連のシリーズが含まれます。 シリーズは1つのモダリティのみ（X線、CT、MR、超音波など）、研究には複数の異なるモダリティのシリーズが含まれる場合があります。</t>
@@ -480,7 +480,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査全体を一意に識別するためのID。【詳細参照】</t>
+    <t>DICOM画像検査全体を一意に識別するためのID【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査全体を一意に識別するためのID。</t>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>ImagingStudy.status</t>
+  </si>
+  <si>
+    <t>DICOM画像検査のステータス</t>
   </si>
   <si>
     <t>DICOM画像検査のステータス。</t>
@@ -545,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査で使用された撮影装置（モダリティ）。【詳細参照】</t>
+    <t>DICOM画像検査で使用された撮影装置（モダリティ）【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査で使用された撮影装置（モダリティ）。</t>
@@ -579,7 +582,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査の対象患者に関する情報。【詳細参照】</t>
+    <t>DICOM画像検査の対象患者に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査の対象患者に関する情報。</t>
@@ -607,7 +610,7 @@
 </t>
   </si>
   <si>
-    <t>このDICOM画像検査を実施するきっかけとなった情報。【詳細参照】</t>
+    <t>このDICOM画像検査を実施するきっかけとなった情報【詳細参照】</t>
   </si>
   <si>
     <t>このDICOM画像検査を実施するきっかけとなった情報。</t>
@@ -636,6 +639,9 @@
 </t>
   </si>
   <si>
+    <t>検査開始日時、もしくは撮影装置に患者情報が届いた/入力された日時</t>
+  </si>
+  <si>
     <t>検査開始日時、もしくは撮影装置に患者情報が届いた/入力された日時。</t>
   </si>
   <si>
@@ -661,7 +667,7 @@
 </t>
   </si>
   <si>
-    <t>他のシステムから依頼されたオーダ情報。【詳細参照】</t>
+    <t>他のシステムから依頼されたオーダ情報【詳細参照】</t>
   </si>
   <si>
     <t>他のシステムから依頼されたオーダ情報。</t>
@@ -696,7 +702,7 @@
 </t>
   </si>
   <si>
-    <t>依頼医師。【詳細参照】</t>
+    <t>依頼医師【詳細参照】</t>
   </si>
   <si>
     <t>依頼医師。</t>
@@ -718,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t>画像を診断した医師。【詳細参照】</t>
+    <t>画像を診断した医師【詳細参照】</t>
   </si>
   <si>
     <t>画像を診断した医師。</t>
@@ -743,7 +749,7 @@
 </t>
   </si>
   <si>
-    <t>このDICOM画像検査リソースが存在する位置。【詳細参照】</t>
+    <t>このDICOM画像検査リソースが存在する位置【詳細参照】</t>
   </si>
   <si>
     <t>このDICOM画像検査リソースが存在する位置。</t>
@@ -769,6 +775,9 @@
 </t>
   </si>
   <si>
+    <t>このDICOM画像検査に含まれるシリーズ数</t>
+  </si>
+  <si>
     <t>このDICOM画像検査に含まれるシリーズ数。</t>
   </si>
   <si>
@@ -785,6 +794,9 @@
 </t>
   </si>
   <si>
+    <t>このDICOM画像検査に含まれるイメージ（インスタンス）の数</t>
+  </si>
+  <si>
     <t>このDICOM画像検査に含まれるイメージ（インスタンス）の数。</t>
   </si>
   <si>
@@ -801,7 +813,7 @@
 </t>
   </si>
   <si>
-    <t>実施された処置に関する情報。【詳細参照】</t>
+    <t>実施された処置に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>実施された処置に関する情報。</t>
@@ -830,7 +842,7 @@
 </t>
   </si>
   <si>
-    <t>実施された処置を表すコード。【詳細参照】</t>
+    <t>実施された処置を表すコード【詳細参照】</t>
   </si>
   <si>
     <t>実施された処置を表すコード。</t>
@@ -852,7 +864,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査が実施された場所。【詳細参照】</t>
+    <t>DICOM画像検査が実施された場所【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査が実施された場所。</t>
@@ -882,7 +894,7 @@
     <t>ImagingStudy.reasonCode</t>
   </si>
   <si>
-    <t>DICOM画像検査が依頼された理由を表す1つ以上のコード。【詳細参照】</t>
+    <t>DICOM画像検査が依頼された理由を表す1つ以上のコード【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査が依頼された理由を表す1つ以上のコード。</t>
@@ -916,7 +928,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査の実施理由に関する情報。【詳細参照】</t>
+    <t>DICOM画像検査の実施理由に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査の実施理由に関する情報。</t>
@@ -941,6 +953,9 @@
 </t>
   </si>
   <si>
+    <t>description要素に関するコメント</t>
+  </si>
+  <si>
     <t>description要素に関するコメント。</t>
   </si>
   <si>
@@ -961,7 +976,7 @@
 </t>
   </si>
   <si>
-    <t>DICOM画像検査に関する記述。【詳細参照】</t>
+    <t>DICOM画像検査に関する記述【詳細参照】</t>
   </si>
   <si>
     <t>DICOM画像検査に関する記述。</t>
@@ -983,6 +998,9 @@
 </t>
   </si>
   <si>
+    <t>DICOM画像検査に含まれるシリーズ（大まかな画像のグループ）</t>
+  </si>
+  <si>
     <t>DICOM画像検査に含まれるシリーズ（大まかな画像のグループ）。</t>
   </si>
   <si>
@@ -1037,7 +1055,7 @@
 </t>
   </si>
   <si>
-    <t>シリーズを一意に識別するためのUID。【詳細参照】</t>
+    <t>シリーズを一意に識別するためのUID【詳細参照】</t>
   </si>
   <si>
     <t>シリーズを一意に識別するためのUID。</t>
@@ -1065,6 +1083,9 @@
 </t>
   </si>
   <si>
+    <t>Series Instance UIDとは別に、ユーザー（または装置）が自由に決められるシリーズ番号</t>
+  </si>
+  <si>
     <t>Series Instance UIDとは別に、ユーザー（または装置）が自由に決められるシリーズ番号。</t>
   </si>
   <si>
@@ -1084,7 +1105,7 @@
 </t>
   </si>
   <si>
-    <t>このシリーズが取得された撮影装置（モダリティ）。【詳細参照】</t>
+    <t>このシリーズが取得された撮影装置（モダリティ）【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズが取得された撮影装置（モダリティ）。</t>
@@ -1103,6 +1124,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズに関する記述</t>
+  </si>
+  <si>
     <t>このシリーズに関する記述。</t>
   </si>
   <si>
@@ -1119,6 +1143,9 @@
 </t>
   </si>
   <si>
+    <t>このシリーズに含まれる画像枚数</t>
+  </si>
+  <si>
     <t>このシリーズに含まれる画像枚数。</t>
   </si>
   <si>
@@ -1126,6 +1153,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.endpoint</t>
+  </si>
+  <si>
+    <t>このシリーズのリソースが存在する位置</t>
   </si>
   <si>
     <t>このシリーズのリソースが存在する位置。</t>
@@ -1144,7 +1174,7 @@
 </t>
   </si>
   <si>
-    <t>このシリーズの対象となる解剖学的部位。【詳細参照】</t>
+    <t>このシリーズの対象となる解剖学的部位【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの対象となる解剖学的部位。</t>
@@ -1165,7 +1195,7 @@
     <t>ImagingStudy.series.laterality</t>
   </si>
   <si>
-    <t>解剖学的部位の左右。【詳細参照】</t>
+    <t>解剖学的部位の左右【詳細参照】</t>
   </si>
   <si>
     <t>解剖学的部位の左右。</t>
@@ -1187,7 +1217,7 @@
 </t>
   </si>
   <si>
-    <t>このシリーズの検体に関する情報。【詳細参照】</t>
+    <t>このシリーズの検体に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの検体に関する情報。</t>
@@ -1202,7 +1232,7 @@
     <t>ImagingStudy.series.started</t>
   </si>
   <si>
-    <t>このシリーズの開始日時。【詳細参照】</t>
+    <t>このシリーズの開始日時【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの開始日時。</t>
@@ -1221,7 +1251,7 @@
 OperatorName</t>
   </si>
   <si>
-    <t>このシリーズの実施医。【詳細参照】</t>
+    <t>このシリーズの実施医【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの実施医。</t>
@@ -1248,7 +1278,7 @@
     <t>ImagingStudy.series.performer.function</t>
   </si>
   <si>
-    <t>このシリーズの実施医の役割。【詳細参照】</t>
+    <t>このシリーズの実施医の役割【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの実施医の役割。</t>
@@ -1270,7 +1300,7 @@
 </t>
   </si>
   <si>
-    <t>このシリーズの撮影者、もしくは組織。【詳細参照】</t>
+    <t>このシリーズの撮影者、もしくは組織【詳細参照】</t>
   </si>
   <si>
     <t>このシリーズの撮影者、もしくは組織。</t>
@@ -1286,6 +1316,9 @@
   </si>
   <si>
     <t>ImagingStudy.series.instance</t>
+  </si>
+  <si>
+    <t>シリーズに含まれるインスタンス（画像）単位の情報</t>
   </si>
   <si>
     <t>シリーズに含まれるインスタンス（画像）単位の情報。</t>
@@ -1310,7 +1343,7 @@
 </t>
   </si>
   <si>
-    <t>インスタンス（画像）のユニークID。【詳細参照】</t>
+    <t>インスタンス（画像）のユニークID【詳細参照】</t>
   </si>
   <si>
     <t>インスタンス（画像）のユニークID。</t>
@@ -1335,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t>SOPクラスUID。【詳細参照】</t>
+    <t>SOPクラスUID【詳細参照】</t>
   </si>
   <si>
     <t>SOPクラスUID。</t>
@@ -1365,7 +1398,7 @@
 </t>
   </si>
   <si>
-    <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号。【詳細参照】</t>
+    <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号【詳細参照】</t>
   </si>
   <si>
     <t>SOP Instance UIDとは別に、ユーザー（または装置）が自由に決められるインスタンス（画像）ごとの番号。</t>
@@ -1383,7 +1416,7 @@
     <t>ImagingStudy.series.instance.title</t>
   </si>
   <si>
-    <t>画像に関する説明。【詳細参照】</t>
+    <t>画像に関する説明【詳細参照】</t>
   </si>
   <si>
     <t>画像に関する説明。</t>
@@ -3097,10 +3130,10 @@
         <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3126,13 +3159,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3165,31 +3198,31 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3208,16 +3241,16 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3243,13 +3276,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3267,7 +3300,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3285,13 +3318,13 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3299,10 +3332,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3325,16 +3358,16 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3384,7 +3417,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>89</v>
@@ -3399,16 +3432,16 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3416,10 +3449,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3442,16 +3475,16 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3501,7 +3534,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3516,16 +3549,16 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3533,14 +3566,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3559,13 +3592,13 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3580,7 +3613,7 @@
         <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>79</v>
@@ -3616,7 +3649,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3631,16 +3664,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3648,10 +3681,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3674,19 +3707,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3735,7 +3768,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3750,16 +3783,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3767,14 +3800,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3793,16 +3826,16 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3852,7 +3885,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3870,13 +3903,13 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -3884,14 +3917,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3910,16 +3943,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3969,7 +4002,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3987,13 +4020,13 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4001,10 +4034,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4027,19 +4060,19 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4088,7 +4121,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4106,7 +4139,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4120,14 +4153,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4146,13 +4179,13 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4203,7 +4236,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4221,10 +4254,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4235,14 +4268,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4261,13 +4294,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4318,7 +4351,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4336,10 +4369,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4350,10 +4383,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4376,16 +4409,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4435,7 +4468,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4450,13 +4483,13 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4467,14 +4500,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4493,16 +4526,16 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4528,11 +4561,11 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4550,7 +4583,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4565,13 +4598,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4582,10 +4615,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4608,19 +4641,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4669,7 +4702,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4684,27 +4717,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4727,16 +4760,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4762,11 +4795,11 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4784,7 +4817,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4799,16 +4832,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4816,10 +4849,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4842,16 +4875,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4901,7 +4934,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4916,27 +4949,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4959,13 +4992,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5016,7 +5049,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5031,10 +5064,10 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5048,14 +5081,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5074,16 +5107,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5133,7 +5166,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5151,10 +5184,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5165,10 +5198,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5191,13 +5224,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5248,7 +5281,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5266,7 +5299,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5280,10 +5313,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5306,13 +5339,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5363,7 +5396,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5381,7 +5414,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5395,10 +5428,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5427,7 +5460,7 @@
         <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>138</v>
@@ -5480,7 +5513,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5498,7 +5531,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5512,14 +5545,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5541,10 +5574,10 @@
         <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>138</v>
@@ -5599,7 +5632,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5631,14 +5664,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5660,16 +5693,16 @@
         <v>91</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5682,43 +5715,43 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>89</v>
@@ -5736,10 +5769,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5750,14 +5783,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5776,13 +5809,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5797,7 +5830,7 @@
         <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>79</v>
@@ -5833,7 +5866,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5851,10 +5884,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5865,14 +5898,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5891,16 +5924,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5926,13 +5959,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -5950,7 +5983,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>89</v>
@@ -5968,10 +6001,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5982,14 +6015,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6008,13 +6041,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6029,7 +6062,7 @@
         <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>79</v>
@@ -6065,7 +6098,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6083,10 +6116,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6097,14 +6130,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6123,13 +6156,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6180,7 +6213,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6198,10 +6231,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6212,10 +6245,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6238,19 +6271,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6299,7 +6332,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6317,7 +6350,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6331,14 +6364,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6357,16 +6390,16 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6392,13 +6425,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6416,7 +6449,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6434,10 +6467,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6448,10 +6481,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6474,16 +6507,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6509,13 +6542,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6533,7 +6566,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6551,10 +6584,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6565,10 +6598,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6591,16 +6624,16 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6650,7 +6683,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6668,10 +6701,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6682,10 +6715,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6708,16 +6741,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6767,7 +6800,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6785,10 +6818,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6799,14 +6832,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6825,19 +6858,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6886,7 +6919,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6901,13 +6934,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6918,10 +6951,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6944,13 +6977,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7001,7 +7034,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7019,7 +7052,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7033,10 +7066,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7065,7 +7098,7 @@
         <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>138</v>
@@ -7118,7 +7151,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7136,7 +7169,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7150,14 +7183,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7179,10 +7212,10 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>138</v>
@@ -7237,7 +7270,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7269,10 +7302,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7295,19 +7328,19 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7332,13 +7365,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7356,7 +7389,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7374,7 +7407,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7388,10 +7421,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7414,16 +7447,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7473,7 +7506,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>89</v>
@@ -7491,24 +7524,24 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7531,13 +7564,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7588,7 +7621,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7606,7 +7639,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7620,10 +7653,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7646,13 +7679,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7703,7 +7736,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7721,7 +7754,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7735,10 +7768,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7767,7 +7800,7 @@
         <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>138</v>
@@ -7820,7 +7853,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7838,7 +7871,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7852,14 +7885,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7881,10 +7914,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -7939,7 +7972,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7971,14 +8004,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8000,16 +8033,16 @@
         <v>91</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8022,7 +8055,7 @@
         <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -8058,7 +8091,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>89</v>
@@ -8076,10 +8109,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8090,14 +8123,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8116,16 +8149,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8151,13 +8184,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8175,7 +8208,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8193,10 +8226,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8207,14 +8240,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8233,16 +8266,16 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8292,7 +8325,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8310,10 +8343,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8324,10 +8357,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8350,16 +8383,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8409,7 +8442,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8427,10 +8460,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -130,129 +130,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: DICOM Tag Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1550,10 +1427,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1750,7 +1627,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1761,13 +1638,11 @@
   <cols>
     <col min="1" max="1" width="46.81640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.81640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="87.99609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1775,6705 +1650,6581 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="59.36328125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="87.2265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="114.25" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="104.890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="19.31640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>78</v>
+      <c r="AN1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>279</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>297</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>91</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>144</v>
+        <v>294</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>343</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>344</v>
+        <v>136</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>369</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>383</v>
+        <v>158</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>163</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>395</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>398</v>
+        <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>306</v>
+        <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>321</v>
+        <v>91</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>144</v>
+        <v>365</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>263</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>407</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>230</v>
+        <v>372</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>410</v>
+        <v>272</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>38</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>415</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>417</v>
+        <v>277</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>418</v>
+        <v>278</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>416</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>419</v>
+        <v>280</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>306</v>
+        <v>94</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>321</v>
+        <v>91</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>138</v>
+        <v>386</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>144</v>
+        <v>387</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>429</v>
+        <v>38</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>337</v>
+        <v>397</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>436</v>
+        <v>38</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>437</v>
+        <v>38</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>441</v>
+        <v>38</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO57">
+  <autoFilter ref="A1:AO56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8483,7 +8234,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -130,6 +130,129 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: DICOM Tag Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1427,10 +1550,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1627,7 +1750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1638,11 +1761,13 @@
   <cols>
     <col min="1" max="1" width="46.81640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.81640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="87.99609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1650,6581 +1775,6705 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="59.36328125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="87.2265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.4765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="114.25" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="104.890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="19.31640625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>94</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>91</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>356</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>359</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>38</v>
+        <v>362</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>158</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>277</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>279</v>
+        <v>393</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>38</v>
+        <v>398</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>94</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>91</v>
+        <v>321</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>38</v>
+        <v>326</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>365</v>
+        <v>144</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>407</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>38</v>
+        <v>408</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>272</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>38</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>277</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>416</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>94</v>
+        <v>306</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>91</v>
+        <v>321</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>386</v>
+        <v>138</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>387</v>
+        <v>144</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>437</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO56">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8234,7 +8483,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>DICOM画像研究で生成されたコンテンツの表現。 研究には、共通の文脈で収集または生成されたサービスオブジェクトペアインスタンス（SOPインスタンス - 画像またはその他のデータ）のセットで構成される一連のシリーズが含まれます。 シリーズは1つのモダリティのみ（X線、CT、MR、超音波など）、研究には複数の異なるモダリティのシリーズが含まれる場合があります。</t>
+  </si>
+  <si>
+    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1774,16 +1778,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1794,10 +1798,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1808,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1817,19 +1821,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1879,13 +1883,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1911,10 +1915,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1925,7 +1929,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1934,16 +1938,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1994,19 +1998,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2026,10 +2030,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2040,28 +2044,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2111,19 +2115,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2143,10 +2147,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2157,7 +2161,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2169,16 +2173,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2204,13 +2208,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2228,19 +2232,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2260,21 +2264,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2286,16 +2290,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2345,25 +2349,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2377,14 +2381,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2403,16 +2407,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2462,7 +2466,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2480,7 +2484,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2494,14 +2498,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2520,16 +2524,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2579,7 +2583,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2591,13 +2595,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2611,14 +2615,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2631,25 +2635,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2698,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2710,13 +2714,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2730,14 +2734,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2747,28 +2751,28 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2817,7 +2821,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2829,19 +2833,19 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>38</v>
@@ -2849,10 +2853,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2860,31 +2864,31 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2910,13 +2914,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -2934,46 +2938,46 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2989,19 +2993,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3027,13 +3031,13 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>38</v>
@@ -3051,7 +3055,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3063,19 +3067,19 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>38</v>
@@ -3083,10 +3087,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3094,31 +3098,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3168,31 +3172,31 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>38</v>
@@ -3200,10 +3204,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3214,7 +3218,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3223,19 +3227,19 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3285,31 +3289,31 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>38</v>
@@ -3317,21 +3321,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3340,16 +3344,16 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3364,7 +3368,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>38</v>
@@ -3400,31 +3404,31 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>38</v>
@@ -3432,10 +3436,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3455,22 +3459,22 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3519,7 +3523,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3531,19 +3535,19 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>38</v>
@@ -3551,21 +3555,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3574,19 +3578,19 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3636,31 +3640,31 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -3668,14 +3672,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3691,19 +3695,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3753,7 +3757,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3765,19 +3769,19 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -3785,10 +3789,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3808,22 +3812,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3872,7 +3876,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3884,13 +3888,13 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -3904,21 +3908,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3927,16 +3931,16 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3987,28 +3991,28 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4019,21 +4023,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4042,16 +4046,16 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4102,28 +4106,28 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -4134,10 +4138,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4148,7 +4152,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4157,19 +4161,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4219,28 +4223,28 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>38</v>
@@ -4251,14 +4255,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4274,19 +4278,19 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4312,11 +4316,11 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4334,7 +4338,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4346,16 +4350,16 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>38</v>
@@ -4366,10 +4370,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4380,7 +4384,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4389,22 +4393,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4453,42 +4457,42 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4508,19 +4512,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4546,11 +4550,11 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4568,7 +4572,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4580,19 +4584,19 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>38</v>
@@ -4600,10 +4604,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4623,19 +4627,19 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4685,7 +4689,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4697,30 +4701,30 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4740,16 +4744,16 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4800,7 +4804,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4812,13 +4816,13 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4832,21 +4836,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4855,19 +4859,19 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4917,28 +4921,28 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -4949,10 +4953,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4972,16 +4976,16 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5032,7 +5036,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5044,13 +5048,13 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5064,10 +5068,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5078,7 +5082,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5090,13 +5094,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5147,13 +5151,13 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
@@ -5165,7 +5169,7 @@
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -5179,14 +5183,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5205,16 +5209,16 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5264,7 +5268,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5276,13 +5280,13 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -5296,14 +5300,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5316,25 +5320,25 @@
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -5383,7 +5387,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5395,13 +5399,13 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5415,21 +5419,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5438,22 +5442,22 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5466,7 +5470,7 @@
         <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>38</v>
@@ -5502,28 +5506,28 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5534,21 +5538,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5557,16 +5561,16 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5581,7 +5585,7 @@
         <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>38</v>
@@ -5617,28 +5621,28 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5649,42 +5653,42 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5710,13 +5714,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5734,28 +5738,28 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -5766,21 +5770,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5789,16 +5793,16 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5813,7 +5817,7 @@
         <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>38</v>
@@ -5849,28 +5853,28 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5881,21 +5885,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5904,16 +5908,16 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5964,28 +5968,28 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5996,10 +6000,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6019,22 +6023,22 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6083,7 +6087,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6095,13 +6099,13 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6115,21 +6119,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6138,19 +6142,19 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6176,13 +6180,13 @@
         <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>38</v>
@@ -6200,28 +6204,28 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6232,10 +6236,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6246,7 +6250,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6255,19 +6259,19 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6293,13 +6297,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6317,28 +6321,28 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>38</v>
@@ -6349,10 +6353,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6372,19 +6376,19 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6434,7 +6438,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6446,16 +6450,16 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6466,10 +6470,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6480,7 +6484,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6489,19 +6493,19 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6551,28 +6555,28 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6583,14 +6587,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6606,22 +6610,22 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6670,7 +6674,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6682,16 +6686,16 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6702,10 +6706,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6716,7 +6720,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6728,13 +6732,13 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6785,13 +6789,13 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
@@ -6803,7 +6807,7 @@
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6817,14 +6821,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6843,16 +6847,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6902,7 +6906,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6914,13 +6918,13 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -6934,14 +6938,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6954,25 +6958,25 @@
         <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7021,7 +7025,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7033,13 +7037,13 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7053,10 +7057,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7067,7 +7071,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7076,22 +7080,22 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7116,13 +7120,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7140,25 +7144,25 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7172,10 +7176,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7183,10 +7187,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7195,19 +7199,19 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7257,42 +7261,42 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7315,13 +7319,13 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7372,7 +7376,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7384,13 +7388,13 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7404,10 +7408,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7418,7 +7422,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7430,13 +7434,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7487,13 +7491,13 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
@@ -7505,7 +7509,7 @@
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7519,14 +7523,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7545,16 +7549,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7604,7 +7608,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7616,13 +7620,13 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7636,14 +7640,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7656,25 +7660,25 @@
         <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7723,7 +7727,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7735,13 +7739,13 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7755,24 +7759,24 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
@@ -7781,19 +7785,19 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7806,7 +7810,7 @@
         <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>38</v>
@@ -7842,28 +7846,28 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -7874,24 +7878,24 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>38</v>
@@ -7900,16 +7904,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7935,13 +7939,13 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -7959,28 +7963,28 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -7991,21 +7995,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8017,16 +8021,16 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8040,7 +8044,7 @@
         <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>38</v>
@@ -8076,28 +8080,28 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8108,10 +8112,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8122,7 +8126,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8134,16 +8138,16 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8193,28 +8197,28 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -152,7 +152,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -180,10 +180,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
-  </si>
-  <si>
-    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -196,7 +196,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースに関するメタデータ」</t>
+    <t>リソースに関するメタデータ</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -219,7 +219,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -238,7 +238,7 @@
     <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
   </si>
   <si>
-    <t>「リソースが書かれている基本言語。」</t>
+    <t>リソースが書かれている基本言語。</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -267,10 +267,10 @@
 </t>
   </si>
   <si>
-    <t>「人間の解釈のためのリソースのテキスト要約」</t>
-  </si>
-  <si>
-    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+    <t>人間の解釈のためのリソースのテキスト要約</t>
+  </si>
+  <si>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -296,10 +296,10 @@
     <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
   </si>
   <si>
-    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
-  </si>
-  <si>
-    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -322,7 +322,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -332,7 +332,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>ImagingStudy.modifierExtension</t>
@@ -341,7 +341,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -394,13 +394,13 @@
     <t>DICOM画像検査のステータス。</t>
   </si>
   <si>
-    <t>「不明」は「その他」を表すものではありません-定義された状態の1つが適用される必要があります。「不明」は、制作システムが現在の状態を確信できない場合に使用されます。」</t>
+    <t>不明」は「その他」を表すものではありません-定義された状態の1つが適用される必要があります。「不明」は、制作システムが現在の状態を確信できない場合に使用されます。</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>「ImagingStudyの状態。」</t>
+    <t>ImagingStudyの状態。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/imagingstudy-status|4.0.1</t>
@@ -441,7 +441,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>「インスタンスにおける取得データの種類。」</t>
+    <t>インスタンスにおける取得データの種類。</t>
   </si>
   <si>
     <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
@@ -906,7 +906,7 @@
     <t>ImagingStudy.series.extension</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -919,11 +919,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1082,7 +1082,7 @@
     <t>解剖学的部位の左右。</t>
   </si>
   <si>
-    <t>「適用される部位の側性を示すコード（左側、右側など）」</t>
+    <t>適用される部位の側性を示すコード（左側、右側など）</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/bodysite-laterality</t>
@@ -1168,7 +1168,7 @@
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>「パフォーマーの関与のタイプ」</t>
+    <t>パフォーマーの関与のタイプ</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/series-performer-function</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -1255,9 +1255,9 @@
     <t>SOPクラスUID。</t>
   </si>
   <si>
-    <t>内視鏡では、主に以下の値が指定される。
- VL Endoscopic Image Storage:1.2.840.10008.5.1.4.1.1.77.1.1 
- Secondary Capture Image Storage:1.2.840.10008.5.1.4.1.1.7</t>
+    <t>内視鏡では、主に以下の値が指定される。  
+　VL Endoscopic Image Storage:1.2.840.10008.5.1.4.1.1.77.1.1  
+　Secondary Capture Image Storage:1.2.840.10008.5.1.4.1.1.7</t>
   </si>
   <si>
     <t>インスタンスのSOPクラス。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -130,6 +130,129 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: DICOM Tag Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1631,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1642,11 +1765,13 @@
   <cols>
     <col min="1" max="1" width="46.81640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.81640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="87.99609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1654,6581 +1779,6705 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="59.36328125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="87.2265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.4765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="114.25" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="104.890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="19.31640625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>294</v>
+        <v>139</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>344</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>357</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>370</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>343</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>381</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>159</v>
+        <v>384</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>164</v>
+        <v>387</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>38</v>
+        <v>395</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>280</v>
+        <v>394</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>38</v>
+        <v>327</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>366</v>
+        <v>145</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>408</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>38</v>
+        <v>409</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>373</v>
+        <v>231</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>273</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>38</v>
+        <v>415</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>38</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>279</v>
+        <v>419</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>281</v>
+        <v>420</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>139</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>388</v>
+        <v>145</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>38</v>
+        <v>430</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>437</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>38</v>
+        <v>442</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO56">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8238,7 +8487,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -130,129 +130,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: DICOM Tag Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1754,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1765,13 +1642,11 @@
   <cols>
     <col min="1" max="1" width="46.81640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.81640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="87.99609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1779,6705 +1654,6581 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="59.36328125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="87.2265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="114.25" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="104.890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="19.31640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>78</v>
+      <c r="AN1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>298</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>344</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>307</v>
+        <v>202</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>357</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>370</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>381</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>384</v>
+        <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>387</v>
+        <v>164</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>395</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>278</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>394</v>
+        <v>280</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>145</v>
+        <v>366</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>264</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>273</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>415</v>
+        <v>38</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>416</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>419</v>
+        <v>279</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>417</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>420</v>
+        <v>281</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>139</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>430</v>
+        <v>38</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>437</v>
+        <v>38</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>438</v>
+        <v>38</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>442</v>
+        <v>38</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO57">
+  <autoFilter ref="A1:AO56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8487,7 +8238,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -235,7 +235,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -247,7 +247,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -293,7 +293,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-imagingstudy-endoscopy.xlsx
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -303,10 +303,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -319,7 +319,7 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ</t>
+    <t>「リソースに関するメタデータ」</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -342,7 +342,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -358,10 +358,10 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -370,7 +370,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -390,10 +390,10 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト要約</t>
-  </si>
-  <si>
-    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -416,13 +416,13 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」</t>
-  </si>
-  <si>
-    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
-  </si>
-  <si>
-    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -445,7 +445,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります</t>
+    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -455,7 +455,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>ImagingStudy.modifierExtension</t>
@@ -464,7 +464,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -517,13 +517,13 @@
     <t>DICOM画像検査のステータス。</t>
   </si>
   <si>
-    <t>不明」は「その他」を表すものではありません-定義された状態の1つが適用される必要があります。「不明」は、制作システムが現在の状態を確信できない場合に使用されます。</t>
+    <t>「不明」は「その他」を表すものではありません-定義された状態の1つが適用される必要があります。「不明」は、制作システムが現在の状態を確信できない場合に使用されます。」</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>ImagingStudyの状態。</t>
+    <t>「ImagingStudyの状態。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/imagingstudy-status|4.0.1</t>
@@ -564,7 +564,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>インスタンスにおける取得データの種類。</t>
+    <t>「インスタンスにおける取得データの種類。」</t>
   </si>
   <si>
     <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
@@ -1029,7 +1029,7 @@
     <t>ImagingStudy.series.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1042,11 +1042,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されなくても無視できない拡張機能</t>
-  </si>
-  <si>
-    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1205,7 +1205,7 @@
     <t>解剖学的部位の左右。</t>
   </si>
   <si>
-    <t>適用される部位の側性を示すコード（左側、右側など）</t>
+    <t>「適用される部位の側性を示すコード（左側、右側など）」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/bodysite-laterality</t>
@@ -1291,7 +1291,7 @@
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>パフォーマーの関与のタイプ</t>
+    <t>「パフォーマーの関与のタイプ」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/series-performer-function</t>
